--- a/极限表.xlsx
+++ b/极限表.xlsx
@@ -426,7 +426,7 @@
   <dimension ref="B8:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -447,10 +447,10 @@
       <c r="E8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -473,7 +473,7 @@
       <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="3" t="s">

--- a/极限表.xlsx
+++ b/极限表.xlsx
@@ -426,7 +426,7 @@
   <dimension ref="B8:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -453,7 +453,7 @@
       <c r="G8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I8" s="3" t="s">

--- a/极限表.xlsx
+++ b/极限表.xlsx
@@ -79,7 +79,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,6 +98,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -113,20 +119,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -426,7 +435,7 @@
   <dimension ref="B8:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -435,51 +444,51 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:11">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/极限表.xlsx
+++ b/极限表.xlsx
@@ -1,85 +1,224 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20415" windowHeight="7770"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,24 +227,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -113,9 +438,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -126,24 +693,76 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -426,101 +1045,107 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B8:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="2:11">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="2:6">
+      <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="5" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/极限表.xlsx
+++ b/极限表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +67,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -82,31 +90,62 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -118,93 +157,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,6 +172,44 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -245,187 +238,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,11 +447,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,11 +482,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,39 +521,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,148 +534,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1051,10 +1044,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B8:K11"/>
+  <dimension ref="B8:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1062,7 +1055,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:12">
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1093,8 +1086,9 @@
       <c r="K8" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="L8" s="5"/>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:7">
       <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
@@ -1110,6 +1104,7 @@
       <c r="F11" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="G11" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/极限表.xlsx
+++ b/极限表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>10</t>
   </si>
@@ -47,6 +47,12 @@
   <si>
     <t>1</t>
   </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
 </sst>
 </file>
 
@@ -67,6 +73,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -76,21 +105,84 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,29 +190,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,14 +203,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -149,63 +210,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,37 +244,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,145 +412,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,17 +438,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,48 +458,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,6 +479,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -529,6 +526,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -537,10 +543,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,133 +555,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1044,10 +1050,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B8:L11"/>
+  <dimension ref="B8:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1055,7 +1061,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:13">
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1086,9 +1092,14 @@
       <c r="K8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:8">
       <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
@@ -1104,7 +1115,12 @@
       <c r="F11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
